--- a/data/trans_dic/P23_1_R_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Habitat-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3092852768575462</v>
+        <v>0.3073987836695125</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2327523463121002</v>
+        <v>0.2323901789691091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2047177603118315</v>
+        <v>0.2053707447420379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1414436161303167</v>
+        <v>0.1422982546528752</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2680798395146701</v>
+        <v>0.2652876383039857</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1924044181978893</v>
+        <v>0.1934105350814731</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3850342185697835</v>
+        <v>0.3814150222951102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3069250983370294</v>
+        <v>0.3078751494226225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2741179720562227</v>
+        <v>0.2714570520223211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1907393352274794</v>
+        <v>0.1938650344704505</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3166523150470937</v>
+        <v>0.3136182309401301</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2360701177587541</v>
+        <v>0.2370164246012294</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2741611911952448</v>
+        <v>0.2745309295083019</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1940702310523292</v>
+        <v>0.1949520396597234</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2108797613941481</v>
+        <v>0.2109232646654168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1434358891995273</v>
+        <v>0.1427585870470573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2515362616689618</v>
+        <v>0.2492359902734342</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1764291526507036</v>
+        <v>0.1746542178974657</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3318707422086242</v>
+        <v>0.334956338344692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.251954972951239</v>
+        <v>0.2549783198012578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2655525704067666</v>
+        <v>0.2656608339405019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.183080060507675</v>
+        <v>0.1843551281826818</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2915303836664445</v>
+        <v>0.2886988002132534</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2120007498153586</v>
+        <v>0.2114396230841526</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.3848936799096774</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2259000374232938</v>
+        <v>0.2259000374232937</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2652518338844349</v>
@@ -788,7 +788,7 @@
         <v>0.3241334077844141</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2058027352975423</v>
+        <v>0.2058027352975424</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3468984652032477</v>
+        <v>0.3492026236738115</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1925788374955217</v>
+        <v>0.1936147683932362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2339112699550135</v>
+        <v>0.234662120543055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1608549214276199</v>
+        <v>0.1600716996064508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2994302252148396</v>
+        <v>0.2989747665119126</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1854006259584262</v>
+        <v>0.1846860050359146</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.422994276797959</v>
+        <v>0.4227134423148015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2620415766055437</v>
+        <v>0.2624239837992257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.295009740355933</v>
+        <v>0.2954712791775104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2120195737132553</v>
+        <v>0.2116843871057071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3486920996922032</v>
+        <v>0.3501267029181122</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2277843980195382</v>
+        <v>0.2296152355400495</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.246030890588116</v>
+        <v>0.2448976701305539</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1975182916416271</v>
+        <v>0.1972077854077308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1969484920658584</v>
+        <v>0.1978317223167042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1487357380169232</v>
+        <v>0.1490180285156344</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2270638599495233</v>
+        <v>0.2267814075164872</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.178392812429272</v>
+        <v>0.1780310719639699</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.302898499323627</v>
+        <v>0.3028419888274866</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2516203297390647</v>
+        <v>0.2525606235067631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2505584238971454</v>
+        <v>0.2505853798586457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1883837530240396</v>
+        <v>0.1878388399931938</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2667185939482703</v>
+        <v>0.2663980704800626</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2130170930372696</v>
+        <v>0.2118828558527783</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.3214207709242772</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2394886124978119</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>208706</v>
+        <v>207433</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>160513</v>
+        <v>160263</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>137515</v>
+        <v>137954</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>103694</v>
+        <v>104321</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>360978</v>
+        <v>357218</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>273742</v>
+        <v>275173</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>259821</v>
+        <v>257379</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>211664</v>
+        <v>212319</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>184133</v>
+        <v>182346</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139833</v>
+        <v>142125</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>426382</v>
+        <v>422296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>335867</v>
+        <v>337213</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>280017</v>
+        <v>280395</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>203342</v>
+        <v>204266</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>219734</v>
+        <v>219779</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>153597</v>
+        <v>152871</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>519006</v>
+        <v>514260</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>373785</v>
+        <v>370025</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>338959</v>
+        <v>342111</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>263992</v>
+        <v>267160</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>276702</v>
+        <v>276815</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>196049</v>
+        <v>197414</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>601527</v>
+        <v>595685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>449148</v>
+        <v>447959</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>263188</v>
+        <v>264936</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>154428</v>
+        <v>155259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>183128</v>
+        <v>183716</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>130656</v>
+        <v>130020</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>461596</v>
+        <v>460894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>299265</v>
+        <v>298112</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>320921</v>
+        <v>320708</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>210130</v>
+        <v>210436</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>230962</v>
+        <v>231323</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172215</v>
+        <v>171943</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>537537</v>
+        <v>539749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>367679</v>
+        <v>370634</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>230670</v>
+        <v>229608</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>195555</v>
+        <v>195248</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>205318</v>
+        <v>206238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>165866</v>
+        <v>166180</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>449600</v>
+        <v>449041</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>375558</v>
+        <v>374797</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>283988</v>
+        <v>283935</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>249120</v>
+        <v>250051</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>261206</v>
+        <v>261234</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>210080</v>
+        <v>209472</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>528119</v>
+        <v>527484</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>448450</v>
+        <v>446063</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
     </row>
     <row r="24">
